--- a/html/Lægevagtsystemer_excel.XLSX
+++ b/html/Lægevagtsystemer_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814AD647-E7E9-45CE-A29D-8D7FFA0967E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210F4463-5E2A-492D-9B24-ED5F902C9F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Lægevagtsystemer">'Opdateret d. 12-05-2025'!$A$1:$F$19</definedName>
+    <definedName name="Lægevagtsystemer">'Opdateret d. 16-05-2025'!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/Lægevagtsystemer_excel.XLSX
+++ b/html/Lægevagtsystemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210F4463-5E2A-492D-9B24-ED5F902C9F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D52114-E88E-4CDF-93FC-2ACE557DFA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Lægevagtsystemer">'Opdateret d. 16-05-2025'!$A$1:$F$19</definedName>
+    <definedName name="Lægevagtsystemer">'Opdateret d. 02-12-2025'!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/Lægevagtsystemer_excel.XLSX
+++ b/html/Lægevagtsystemer_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D52114-E88E-4CDF-93FC-2ACE557DFA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0054CB9-A4C1-4594-AA8E-903EF37AAC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/Lægevagtsystemer_excel.XLSX
+++ b/html/Lægevagtsystemer_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0054CB9-A4C1-4594-AA8E-903EF37AAC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242CE3B-B4B5-4C9E-BB8F-7CAED68C0C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Lægevagtsystemer">'Opdateret d. 02-12-2025'!$A$1:$F$19</definedName>
+    <definedName name="Lægevagtsystemer">'Opdateret d. 05-12-2025'!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -475,9 +475,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -525,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -539,7 +539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -573,7 +573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -601,7 +601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -615,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -632,7 +632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -652,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -666,7 +666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -680,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -694,7 +694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -711,7 +711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -725,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -753,7 +753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>

--- a/html/Lægevagtsystemer_excel.XLSX
+++ b/html/Lægevagtsystemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242CE3B-B4B5-4C9E-BB8F-7CAED68C0C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21010445-0498-47CA-9B7C-D4205345C71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Lægevagtsystemer">'Opdateret d. 05-12-2025'!$A$1:$F$19</definedName>
+    <definedName name="Lægevagtsystemer">'Opdateret d. 19-12-2025'!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -475,9 +475,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -525,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -539,7 +539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -573,7 +573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -601,7 +601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -615,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -632,7 +632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -652,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -666,7 +666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -680,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -694,7 +694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -711,7 +711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -725,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -753,7 +753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
